--- a/data/9.names_withoutsynonyms_withoutweights_withbasevectors.xlsx
+++ b/data/9.names_withoutsynonyms_withoutweights_withbasevectors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\poc-names-customembeddings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\custom_embeddings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAAC14C-0651-4BAF-902B-9E6D5C70238B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCCD164-E5E8-4D2D-84E7-7E8D1A44E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="4">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="4">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="4">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
